--- a/regions/10/biznes seqtori/zomis mikhedvit.xlsx
+++ b/regions/10/biznes seqtori/zomis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168EA10-FBE9-467F-B1D4-1C1AA54F0372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -279,6 +280,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,21 +524,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" style="9" customWidth="1"/>
     <col min="2" max="14" width="8.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +549,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -521,14 +558,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -575,8 +612,14 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -625,8 +668,14 @@
       <c r="P6" s="11">
         <v>88036.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11">
+        <v>116964.1</v>
+      </c>
+      <c r="R6" s="11">
+        <v>139327.79999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -675,8 +724,14 @@
       <c r="P7" s="12">
         <v>59095.199999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>84785.7</v>
+      </c>
+      <c r="R7" s="12">
+        <v>101424.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -725,8 +780,14 @@
       <c r="P8" s="12">
         <v>13706.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>16656.8</v>
+      </c>
+      <c r="R8" s="12">
+        <v>20299.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -775,827 +836,917 @@
       <c r="P9" s="12">
         <v>15235.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="12">
+        <v>15521.6</v>
+      </c>
+      <c r="R9" s="12">
+        <v>17603.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
         <v>2006</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C13" s="5">
         <v>2007</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D13" s="5">
         <v>2008</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E13" s="5">
         <v>2009</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F13" s="6">
         <v>2010</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G13" s="6">
         <v>2011</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H13" s="6">
         <v>2012</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I13" s="6">
         <v>2013</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J13" s="6">
         <v>2014</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K13" s="6">
         <v>2015</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L13" s="6">
         <v>2016</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M13" s="6">
         <v>2017</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N13" s="6">
         <v>2018</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O13" s="6">
         <v>2019</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P13" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="Q13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B14" s="11">
         <v>4583.6000000000004</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C14" s="11">
         <v>6212.8</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D14" s="11">
         <v>6615.7</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E14" s="11">
         <v>7467.6</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F14" s="11">
         <v>8691.5</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G14" s="11">
         <v>12718.8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H14" s="11">
         <v>15643.8</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I14" s="11">
         <v>15488.3</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J14" s="11">
         <v>16844.599999999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K14" s="11">
         <v>19648.900000000001</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L14" s="11">
         <v>22504.400000000001</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M14" s="11">
         <v>24429.4</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N14" s="11">
         <v>26747</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O14" s="11">
         <v>29768.799999999999</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P14" s="11">
         <v>28464.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="11">
+        <v>34882.1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>44408.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2326.3000000000002</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3045</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3544.7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3633.8</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4464.6000000000004</v>
+      </c>
+      <c r="G15" s="12">
+        <v>5862.5</v>
+      </c>
+      <c r="H15" s="12">
+        <v>7564.9</v>
+      </c>
+      <c r="I15" s="12">
+        <v>7135.9</v>
+      </c>
+      <c r="J15" s="12">
+        <v>7618.2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>8698.7000000000007</v>
+      </c>
+      <c r="L15" s="12">
+        <v>9920.2999999999993</v>
+      </c>
+      <c r="M15" s="12">
+        <v>10656.3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>11444.2</v>
+      </c>
+      <c r="O15" s="12">
+        <v>12891</v>
+      </c>
+      <c r="P15" s="12">
+        <v>11985.8</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>16987.7</v>
+      </c>
+      <c r="R15" s="12">
+        <v>22817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1153.8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1924.4</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1796.2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2080.3000000000002</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2116</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3098.2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3951.4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>3820.4</v>
+      </c>
+      <c r="J16" s="12">
+        <v>4063</v>
+      </c>
+      <c r="K16" s="12">
+        <v>4927.7</v>
+      </c>
+      <c r="L16" s="12">
+        <v>5524.7</v>
+      </c>
+      <c r="M16" s="12">
+        <v>6106.3</v>
+      </c>
+      <c r="N16" s="12">
+        <v>6863.4</v>
+      </c>
+      <c r="O16" s="12">
+        <v>8072.2</v>
+      </c>
+      <c r="P16" s="12">
+        <v>7751.1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>8692.1</v>
+      </c>
+      <c r="R16" s="12">
+        <v>10988.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1103.4000000000001</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1243.5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1274.7</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1753.4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2110.9</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3758.1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>4127.3999999999996</v>
+      </c>
+      <c r="I17" s="12">
+        <v>4532</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5163.3999999999996</v>
+      </c>
+      <c r="K17" s="12">
+        <v>6022.5</v>
+      </c>
+      <c r="L17" s="12">
+        <v>7059.4</v>
+      </c>
+      <c r="M17" s="12">
+        <v>7666.8</v>
+      </c>
+      <c r="N17" s="12">
+        <v>8439.4</v>
+      </c>
+      <c r="O17" s="12">
+        <v>8805.6</v>
+      </c>
+      <c r="P17" s="12">
+        <v>8727.7999999999993</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>9202.2999999999993</v>
+      </c>
+      <c r="R17" s="12">
+        <v>10603.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2010</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2011</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2012</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2013</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2014</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2015</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2016</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2017</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2018</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="P21" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
+        <v>189597.59035404999</v>
+      </c>
+      <c r="C22" s="13">
+        <v>196006.72566155501</v>
+      </c>
+      <c r="D22" s="13">
+        <v>192462.72705051399</v>
+      </c>
+      <c r="E22" s="13">
+        <v>224629.23322492</v>
+      </c>
+      <c r="F22" s="13">
+        <v>236822</v>
+      </c>
+      <c r="G22" s="13">
+        <v>310074</v>
+      </c>
+      <c r="H22" s="13">
+        <v>335360.22350205714</v>
+      </c>
+      <c r="I22" s="13">
+        <v>344984.75830187002</v>
+      </c>
+      <c r="J22" s="13">
+        <v>372009.23457387509</v>
+      </c>
+      <c r="K22" s="13">
+        <v>395716.43691956601</v>
+      </c>
+      <c r="L22" s="13">
+        <v>412336.75403550803</v>
+      </c>
+      <c r="M22" s="13">
+        <v>437602</v>
+      </c>
+      <c r="N22" s="13">
+        <v>459522</v>
+      </c>
+      <c r="O22" s="13">
+        <v>463871</v>
+      </c>
+      <c r="P22" s="13">
+        <v>443272.1</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>460576</v>
+      </c>
+      <c r="R22" s="13">
+        <v>484705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12">
-        <v>2326.3000000000002</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3045</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3544.7</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3633.8</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4464.6000000000004</v>
-      </c>
-      <c r="G16" s="12">
-        <v>5862.5</v>
-      </c>
-      <c r="H16" s="12">
-        <v>7564.9</v>
-      </c>
-      <c r="I16" s="12">
-        <v>7135.9</v>
-      </c>
-      <c r="J16" s="12">
-        <v>7618.2</v>
-      </c>
-      <c r="K16" s="12">
-        <v>8698.7000000000007</v>
-      </c>
-      <c r="L16" s="12">
-        <v>9920.2999999999993</v>
-      </c>
-      <c r="M16" s="12">
-        <v>10656.3</v>
-      </c>
-      <c r="N16" s="12">
-        <v>11444.2</v>
-      </c>
-      <c r="O16" s="12">
-        <v>12891</v>
-      </c>
-      <c r="P16" s="12">
-        <v>11985.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="B23" s="14">
+        <v>77994</v>
+      </c>
+      <c r="C23" s="14">
+        <v>81329.007215117992</v>
+      </c>
+      <c r="D23" s="14">
+        <v>85252.215264008002</v>
+      </c>
+      <c r="E23" s="14">
+        <v>89100.747154060009</v>
+      </c>
+      <c r="F23" s="14">
+        <v>95189.759525247995</v>
+      </c>
+      <c r="G23" s="14">
+        <v>111052</v>
+      </c>
+      <c r="H23" s="14">
+        <v>125101</v>
+      </c>
+      <c r="I23" s="14">
+        <v>130874.99999981999</v>
+      </c>
+      <c r="J23" s="14">
+        <v>138604.19565213</v>
+      </c>
+      <c r="K23" s="14">
+        <v>151932</v>
+      </c>
+      <c r="L23" s="14">
+        <v>169391</v>
+      </c>
+      <c r="M23" s="14">
+        <v>185451</v>
+      </c>
+      <c r="N23" s="14">
+        <v>195498</v>
+      </c>
+      <c r="O23" s="14">
+        <v>210883</v>
+      </c>
+      <c r="P23" s="14">
+        <v>209529</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>224137</v>
+      </c>
+      <c r="R23" s="14">
+        <v>246968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12">
-        <v>1153.8</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1924.4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1796.2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2080.3000000000002</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2116</v>
-      </c>
-      <c r="G17" s="12">
-        <v>3098.2</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3951.4</v>
-      </c>
-      <c r="I17" s="12">
-        <v>3820.4</v>
-      </c>
-      <c r="J17" s="12">
-        <v>4063</v>
-      </c>
-      <c r="K17" s="12">
-        <v>4927.7</v>
-      </c>
-      <c r="L17" s="12">
-        <v>5524.7</v>
-      </c>
-      <c r="M17" s="12">
-        <v>6106.3</v>
-      </c>
-      <c r="N17" s="12">
-        <v>6863.4</v>
-      </c>
-      <c r="O17" s="12">
-        <v>8072.2</v>
-      </c>
-      <c r="P17" s="12">
-        <v>7751.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B24" s="14">
+        <v>46035.214006180999</v>
+      </c>
+      <c r="C24" s="14">
+        <v>57691.689018892997</v>
+      </c>
+      <c r="D24" s="14">
+        <v>53387.108312602999</v>
+      </c>
+      <c r="E24" s="14">
+        <v>59143.666451906996</v>
+      </c>
+      <c r="F24" s="14">
+        <v>58376.942860315001</v>
+      </c>
+      <c r="G24" s="14">
+        <v>69710.081312256996</v>
+      </c>
+      <c r="H24" s="14">
+        <v>72806.403482578986</v>
+      </c>
+      <c r="I24" s="14">
+        <v>78913.398679050995</v>
+      </c>
+      <c r="J24" s="14">
+        <v>78931.690597442008</v>
+      </c>
+      <c r="K24" s="14">
+        <v>86313.828151472</v>
+      </c>
+      <c r="L24" s="14">
+        <v>89795.161616493002</v>
+      </c>
+      <c r="M24" s="14">
+        <v>90681</v>
+      </c>
+      <c r="N24" s="14">
+        <v>101078</v>
+      </c>
+      <c r="O24" s="14">
+        <v>96076</v>
+      </c>
+      <c r="P24" s="14">
+        <v>97058.9</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>93940</v>
+      </c>
+      <c r="R24" s="14">
+        <v>101570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12">
-        <v>1103.4000000000001</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1243.5</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1274.7</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1753.4</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2110.9</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3758.1</v>
-      </c>
-      <c r="H18" s="12">
-        <v>4127.3999999999996</v>
-      </c>
-      <c r="I18" s="12">
-        <v>4532</v>
-      </c>
-      <c r="J18" s="12">
-        <v>5163.3999999999996</v>
-      </c>
-      <c r="K18" s="12">
-        <v>6022.5</v>
-      </c>
-      <c r="L18" s="12">
-        <v>7059.4</v>
-      </c>
-      <c r="M18" s="12">
-        <v>7666.8</v>
-      </c>
-      <c r="N18" s="12">
-        <v>8439.4</v>
-      </c>
-      <c r="O18" s="12">
-        <v>8805.6</v>
-      </c>
-      <c r="P18" s="12">
-        <v>8727.7999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2007</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2009</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2010</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2011</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2012</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2013</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="M22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="N22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="O22" s="6">
-        <v>2019</v>
-      </c>
-      <c r="P22" s="6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13">
-        <v>189597.59035404999</v>
-      </c>
-      <c r="C23" s="13">
-        <v>196006.72566155501</v>
-      </c>
-      <c r="D23" s="13">
-        <v>192462.72705051399</v>
-      </c>
-      <c r="E23" s="13">
-        <v>224629.23322492</v>
-      </c>
-      <c r="F23" s="13">
-        <v>236822</v>
-      </c>
-      <c r="G23" s="13">
-        <v>310074</v>
-      </c>
-      <c r="H23" s="13">
-        <v>335360.22350205714</v>
-      </c>
-      <c r="I23" s="13">
-        <v>344984.75830187002</v>
-      </c>
-      <c r="J23" s="13">
-        <v>372009.23457387509</v>
-      </c>
-      <c r="K23" s="13">
-        <v>395716.43691956601</v>
-      </c>
-      <c r="L23" s="13">
-        <v>412336.75403550803</v>
-      </c>
-      <c r="M23" s="13">
-        <v>437602</v>
-      </c>
-      <c r="N23" s="13">
-        <v>459522</v>
-      </c>
-      <c r="O23" s="13">
-        <v>463871</v>
-      </c>
-      <c r="P23" s="13">
-        <v>443272.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14">
-        <v>77994</v>
-      </c>
-      <c r="C24" s="14">
-        <v>81329.007215117992</v>
-      </c>
-      <c r="D24" s="14">
-        <v>85252.215264008002</v>
-      </c>
-      <c r="E24" s="14">
-        <v>89100.747154060009</v>
-      </c>
-      <c r="F24" s="14">
-        <v>95189.759525247995</v>
-      </c>
-      <c r="G24" s="14">
-        <v>111052</v>
-      </c>
-      <c r="H24" s="14">
-        <v>125101</v>
-      </c>
-      <c r="I24" s="14">
-        <v>130874.99999981999</v>
-      </c>
-      <c r="J24" s="14">
-        <v>138604.19565213</v>
-      </c>
-      <c r="K24" s="14">
-        <v>151932</v>
-      </c>
-      <c r="L24" s="14">
-        <v>169391</v>
-      </c>
-      <c r="M24" s="14">
-        <v>185451</v>
-      </c>
-      <c r="N24" s="14">
-        <v>195498</v>
-      </c>
-      <c r="O24" s="14">
-        <v>210883</v>
-      </c>
-      <c r="P24" s="14">
-        <v>209529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="B25" s="14">
-        <v>46035.214006180999</v>
+        <v>65568.376347868994</v>
       </c>
       <c r="C25" s="14">
-        <v>57691.689018892997</v>
+        <v>56986.029427544003</v>
       </c>
       <c r="D25" s="14">
-        <v>53387.108312602999</v>
+        <v>53823.403473902996</v>
       </c>
       <c r="E25" s="14">
-        <v>59143.666451906996</v>
+        <v>76384.819618952999</v>
       </c>
       <c r="F25" s="14">
-        <v>58376.942860315001</v>
+        <v>83255.322809648002</v>
       </c>
       <c r="G25" s="14">
-        <v>69710.081312256996</v>
+        <v>129312.070637611</v>
       </c>
       <c r="H25" s="14">
-        <v>72806.403482578986</v>
+        <v>137452.82001947798</v>
       </c>
       <c r="I25" s="14">
-        <v>78913.398679050995</v>
+        <v>135196.35962299901</v>
       </c>
       <c r="J25" s="14">
-        <v>78931.690597442008</v>
+        <v>154473.34832430296</v>
       </c>
       <c r="K25" s="14">
-        <v>86313.828151472</v>
+        <v>157470.60876809404</v>
       </c>
       <c r="L25" s="14">
-        <v>89795.161616493002</v>
+        <v>153150.59241901501</v>
       </c>
       <c r="M25" s="14">
-        <v>90681</v>
+        <v>161470</v>
       </c>
       <c r="N25" s="14">
-        <v>101078</v>
+        <v>162946</v>
       </c>
       <c r="O25" s="14">
-        <v>96076</v>
+        <v>156912</v>
       </c>
       <c r="P25" s="14">
-        <v>97058.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14">
-        <v>65568.376347868994</v>
-      </c>
-      <c r="C26" s="14">
-        <v>56986.029427544003</v>
-      </c>
-      <c r="D26" s="14">
-        <v>53823.403473902996</v>
-      </c>
-      <c r="E26" s="14">
-        <v>76384.819618952999</v>
-      </c>
-      <c r="F26" s="14">
-        <v>83255.322809648002</v>
-      </c>
-      <c r="G26" s="14">
-        <v>129312.070637611</v>
-      </c>
-      <c r="H26" s="14">
-        <v>137452.82001947798</v>
-      </c>
-      <c r="I26" s="14">
-        <v>135196.35962299901</v>
-      </c>
-      <c r="J26" s="14">
-        <v>154473.34832430296</v>
-      </c>
-      <c r="K26" s="14">
-        <v>157470.60876809404</v>
-      </c>
-      <c r="L26" s="14">
-        <v>153150.59241901501</v>
-      </c>
-      <c r="M26" s="14">
-        <v>161470</v>
-      </c>
-      <c r="N26" s="14">
-        <v>162946</v>
-      </c>
-      <c r="O26" s="14">
-        <v>156912</v>
-      </c>
-      <c r="P26" s="14">
         <v>136684.20000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="Q25" s="14">
+        <v>142499</v>
+      </c>
+      <c r="R25" s="14">
+        <v>136167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5">
         <v>2006</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C29" s="5">
         <v>2007</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D29" s="5">
         <v>2008</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E29" s="5">
         <v>2009</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F29" s="6">
         <v>2010</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G29" s="6">
         <v>2011</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H29" s="6">
         <v>2012</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I29" s="6">
         <v>2013</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J29" s="6">
         <v>2014</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K29" s="6">
         <v>2015</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L29" s="6">
         <v>2016</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M29" s="6">
         <v>2017</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N29" s="6">
         <v>2018</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O29" s="6">
         <v>2019</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P29" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="Q29" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B30" s="11">
         <v>347.35931871205742</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C30" s="11">
         <v>469.77175116535238</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D30" s="11">
         <v>643.68252651797218</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E30" s="11">
         <v>652.14151474811365</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F30" s="11">
         <v>697.5</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G30" s="11">
         <v>728.6</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H30" s="11">
         <v>828.33058853093507</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I30" s="11">
         <v>876.93812652517033</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J30" s="11">
         <v>920.10458969048693</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K30" s="11">
         <v>1006.6919346194854</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L30" s="11">
         <v>1065.0702442482063</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M30" s="11">
         <v>1167.5999999999999</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N30" s="11">
         <v>1247.8</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O30" s="11">
         <v>1315.5</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P30" s="11">
         <v>1348.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="11">
+        <v>1505.8</v>
+      </c>
+      <c r="R30" s="11">
+        <v>1791.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="12">
+        <v>408.10005737013586</v>
+      </c>
+      <c r="C31" s="12">
+        <v>537.19550016924995</v>
+      </c>
+      <c r="D31" s="12">
+        <v>739.38361548718547</v>
+      </c>
+      <c r="E31" s="12">
+        <v>745.51774252244297</v>
+      </c>
+      <c r="F31" s="12">
+        <v>803.73257235666392</v>
+      </c>
+      <c r="G31" s="12">
+        <v>833.30883741135244</v>
+      </c>
+      <c r="H31" s="12">
+        <v>938.12244897959158</v>
+      </c>
+      <c r="I31" s="12">
+        <v>985.09925717636304</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1036.7195479264185</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1109.7623033926093</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1118.9844619424121</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1231.9000000000001</v>
+      </c>
+      <c r="O31" s="12">
+        <v>1282.9000000000001</v>
+      </c>
+      <c r="P31" s="12">
+        <v>1298.4000000000001</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>1494.5</v>
+      </c>
+      <c r="R31" s="12">
+        <v>1796.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="12">
-        <v>408.10005737013586</v>
+        <v>368.27955850453765</v>
       </c>
       <c r="C32" s="12">
-        <v>537.19550016924995</v>
+        <v>501.65874102831805</v>
       </c>
       <c r="D32" s="12">
-        <v>739.38361548718547</v>
+        <v>679.59017110164223</v>
       </c>
       <c r="E32" s="12">
-        <v>745.51774252244297</v>
+        <v>709.5075779636519</v>
       </c>
       <c r="F32" s="12">
-        <v>803.73257235666392</v>
+        <v>722.33443871723387</v>
       </c>
       <c r="G32" s="12">
-        <v>833.30883741135244</v>
+        <v>844.93910305249801</v>
       </c>
       <c r="H32" s="12">
-        <v>938.12244897959158</v>
+        <v>1005.641138995656</v>
       </c>
       <c r="I32" s="12">
-        <v>985.09925717636304</v>
+        <v>989.63044346529739</v>
       </c>
       <c r="J32" s="12">
-        <v>1036.7195479264185</v>
+        <v>1084.2947398157394</v>
       </c>
       <c r="K32" s="12">
-        <v>1109.7623033926093</v>
+        <v>1133.1802255822915</v>
       </c>
       <c r="L32" s="12">
-        <v>1118.9844619424121</v>
+        <v>1218.2761202075346</v>
       </c>
       <c r="M32" s="12">
-        <v>1211.4000000000001</v>
+        <v>1353</v>
       </c>
       <c r="N32" s="12">
-        <v>1231.9000000000001</v>
+        <v>1397</v>
       </c>
       <c r="O32" s="12">
-        <v>1282.9000000000001</v>
+        <v>1613.6</v>
       </c>
       <c r="P32" s="12">
-        <v>1298.4000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1560.3</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>1796.5</v>
+      </c>
+      <c r="R32" s="12">
+        <v>2099.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="12">
-        <v>368.27955850453765</v>
+        <v>254.82798596705078</v>
       </c>
       <c r="C33" s="12">
-        <v>501.65874102831805</v>
+        <v>335.46622856550158</v>
       </c>
       <c r="D33" s="12">
-        <v>679.59017110164223</v>
+        <v>445.35714433963614</v>
       </c>
       <c r="E33" s="12">
-        <v>709.5075779636519</v>
+        <v>489.21161484674172</v>
       </c>
       <c r="F33" s="12">
-        <v>722.33443871723387</v>
+        <v>551.84957614333655</v>
       </c>
       <c r="G33" s="12">
-        <v>844.93910305249801</v>
+        <v>566.0407827986179</v>
       </c>
       <c r="H33" s="12">
-        <v>1005.641138995656</v>
+        <v>621.62790771949517</v>
       </c>
       <c r="I33" s="12">
-        <v>989.63044346529739</v>
+        <v>697.156350926443</v>
       </c>
       <c r="J33" s="12">
-        <v>1084.2947398157394</v>
+        <v>718.31106632079116</v>
       </c>
       <c r="K33" s="12">
-        <v>1133.1802255822915</v>
+        <v>820.64749044434609</v>
       </c>
       <c r="L33" s="12">
-        <v>1218.2761202075346</v>
+        <v>900.90087928909111</v>
       </c>
       <c r="M33" s="12">
-        <v>1353</v>
+        <v>994.3</v>
       </c>
       <c r="N33" s="12">
-        <v>1397</v>
+        <v>1167.3</v>
       </c>
       <c r="O33" s="12">
-        <v>1613.6</v>
+        <v>1167.7</v>
       </c>
       <c r="P33" s="12">
-        <v>1560.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="12">
-        <v>254.82798596705078</v>
-      </c>
-      <c r="C34" s="12">
-        <v>335.46622856550158</v>
-      </c>
-      <c r="D34" s="12">
-        <v>445.35714433963614</v>
-      </c>
-      <c r="E34" s="12">
-        <v>489.21161484674172</v>
-      </c>
-      <c r="F34" s="12">
-        <v>551.84957614333655</v>
-      </c>
-      <c r="G34" s="12">
-        <v>566.0407827986179</v>
-      </c>
-      <c r="H34" s="12">
-        <v>621.62790771949517</v>
-      </c>
-      <c r="I34" s="12">
-        <v>697.156350926443</v>
-      </c>
-      <c r="J34" s="12">
-        <v>718.31106632079116</v>
-      </c>
-      <c r="K34" s="12">
-        <v>820.64749044434609</v>
-      </c>
-      <c r="L34" s="12">
-        <v>900.90087928909111</v>
-      </c>
-      <c r="M34" s="12">
-        <v>994.3</v>
-      </c>
-      <c r="N34" s="12">
-        <v>1167.3</v>
-      </c>
-      <c r="O34" s="12">
-        <v>1167.7</v>
-      </c>
-      <c r="P34" s="12">
         <v>1269</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="12">
+        <v>1318.6</v>
+      </c>
+      <c r="R33" s="12">
+        <v>1536.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="E15" name="II 2006"/>
+    <protectedRange sqref="E14" name="II 2006"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
